--- a/biology/Botanique/Quercus_×alvordiana/Quercus_×alvordiana.xlsx
+++ b/biology/Botanique/Quercus_×alvordiana/Quercus_×alvordiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Quercus_%C3%97alvordiana</t>
+          <t>Quercus_×alvordiana</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quercus ×alvordiana, ou chêne d'Alvord, est une espèce de plantes à fleurs de la famille des Fagaceae. C'est un chêne hybride du genre Quercus. Il a été rapporté qu'il s'agissait d'un hybride entre Quercus douglasii et Quercus turbinella[1], ou entre Q. douglasii et Quercus john-tuckeri[2],[3] qui était auparavant considéré comme une variété de Q. turbinella[4]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quercus ×alvordiana, ou chêne d'Alvord, est une espèce de plantes à fleurs de la famille des Fagaceae. C'est un chêne hybride du genre Quercus. Il a été rapporté qu'il s'agissait d'un hybride entre Quercus douglasii et Quercus turbinella, ou entre Q. douglasii et Quercus john-tuckeri, qui était auparavant considéré comme une variété de Q. turbinella. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Quercus_%C3%97alvordiana</t>
+          <t>Quercus_×alvordiana</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est l'hybride le plus commun de Q. douglasii[réf. nécessaire]. Il est endémique de la Californie, où il est présent dans le sud des Chaînes côtières californiennes et dans les Transverse Ranges occidentales. 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Quercus_%C3%97alvordiana</t>
+          <t>Quercus_×alvordiana</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Quercus ×alvordiana est un arbuste ou arbre de moins de 3 mètres de haut, qui peut être à feuilles persistantes ou à feuilles caduques. 
 Les feuilles mesurent jusqu'à 5 centimètres de long, d'un bleu terne à gris-vert sur le dessus et d'un vert plus pâle sur le dessous. 
-Le gland est de forme étroite et mesure jusqu'à 4 centimètres de long, avec une coupe jusqu'à 1,6 cm de large[3]. 
+Le gland est de forme étroite et mesure jusqu'à 4 centimètres de long, avec une coupe jusqu'à 1,6 cm de large. 
 </t>
         </is>
       </c>
